--- a/ValueSet-lmdi-address-type.xlsx
+++ b/ValueSet-lmdi-address-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T11:54:58+00:00</t>
+    <t>2025-10-12T08:57:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-lmdi-address-type.xlsx
+++ b/ValueSet-lmdi-address-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-12T08:57:38+00:00</t>
+    <t>2025-10-12T09:19:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-lmdi-address-type.xlsx
+++ b/ValueSet-lmdi-address-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-12T09:19:49+00:00</t>
+    <t>2025-10-17T18:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-lmdi-address-type.xlsx
+++ b/ValueSet-lmdi-address-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T18:23:46+00:00</t>
+    <t>2025-10-17T18:45:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-lmdi-address-type.xlsx
+++ b/ValueSet-lmdi-address-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T18:45:29+00:00</t>
+    <t>2025-10-17T18:58:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-lmdi-address-type.xlsx
+++ b/ValueSet-lmdi-address-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T18:58:39+00:00</t>
+    <t>2025-10-18T06:27:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-lmdi-address-type.xlsx
+++ b/ValueSet-lmdi-address-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-18T06:27:30+00:00</t>
+    <t>2025-10-18T06:37:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-lmdi-address-type.xlsx
+++ b/ValueSet-lmdi-address-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-18T06:37:01+00:00</t>
+    <t>2025-10-18T06:49:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-lmdi-address-type.xlsx
+++ b/ValueSet-lmdi-address-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-18T06:49:50+00:00</t>
+    <t>2025-11-06T09:39:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-lmdi-address-type.xlsx
+++ b/ValueSet-lmdi-address-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T09:39:43+00:00</t>
+    <t>2025-11-06T09:59:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-lmdi-address-type.xlsx
+++ b/ValueSet-lmdi-address-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T09:59:39+00:00</t>
+    <t>2025-11-24T09:13:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-lmdi-address-type.xlsx
+++ b/ValueSet-lmdi-address-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:13:45+00:00</t>
+    <t>2025-11-25T12:27:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-lmdi-address-type.xlsx
+++ b/ValueSet-lmdi-address-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T12:27:52+00:00</t>
+    <t>2026-02-05T09:35:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
